--- a/medicine/Pharmacie/Classe_ATC_V/Classe_ATC_V.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_V/Classe_ATC_V.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC V, dénommée « Divers », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV[2]. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC V, dénommée « Divers », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>V Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">V01 Allergènes
 V03 Tous les autres produits thérapeutiques
